--- a/data/primary_school/data.xlsx
+++ b/data/primary_school/data.xlsx
@@ -448,7 +448,7 @@
         <v>087-851-1316</v>
       </c>
       <c r="G2" t="str">
-        <v>http://www.edu-tens.net/syoHP/sinbantyouHP/main.htm</v>
+        <v>https://fa.fureai-cloud.jp/sinbantyouhp/</v>
       </c>
       <c r="H2" t="str">
         <v/>

--- a/data/primary_school/data.xlsx
+++ b/data/primary_school/data.xlsx
@@ -448,7 +448,7 @@
         <v>087-851-1316</v>
       </c>
       <c r="G2" t="str">
-        <v>http://www.edu-tens.net/syoHP/sinbantyouHP/main.htm</v>
+        <v>http://www.edu-tens.net/syoHP/sinbantyouHP/</v>
       </c>
       <c r="H2" t="str">
         <v/>

--- a/data/primary_school/data.xlsx
+++ b/data/primary_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1780,9 +1780,29 @@
         <v/>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <v>34.3426884</v>
+      </c>
+      <c r="C54" t="str">
+        <v>133.9545587</v>
+      </c>
+      <c r="D54" t="str">
+        <v>高松市立下笠居小学校五色台分校</v>
+      </c>
+      <c r="E54" t="str">
+        <v>高松市中山町1501-192</v>
+      </c>
+      <c r="F54" t="str">
+        <v>087-881-6310</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H54"/>
   </ignoredErrors>
 </worksheet>
 </file>